--- a/testData/accapproval_test_data.xlsx
+++ b/testData/accapproval_test_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8376"/>
   </bookViews>
   <sheets>
     <sheet name="add_access_approvel" sheetId="3" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="personal_history" sheetId="12" r:id="rId9"/>
     <sheet name="all_history" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="105">
   <si>
     <t>添加一级访问审批</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -51,10 +51,6 @@
   <si>
     <t>no</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>no</t>
@@ -282,9 +278,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>test_F09_S23_accessApproval_accept_005</t>
-  </si>
-  <si>
     <t>test_F09_S23_accessApproval_accept_006</t>
   </si>
   <si>
@@ -315,87 +308,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>cyyt cyyu</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>cyyv cyyw</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>cyydebain</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户cyyt拒绝审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户cyyu拒绝审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级审批人拒绝审批所以cyyv没有收到审批消息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级审批人拒绝审批所以cyyw没有收到审批消息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批拒绝cyyt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批拒绝cyyu</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为一级审批人只需一人审批通过所以用户cyyu收到的审批消息状态为过期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户cyyv同意访问审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户cyyw同意访问审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户cyyt同意访问审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问审批同意cyyt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问审批同意cyyv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问审批同意cyyw</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cyyt(cyyt) cyyu(cyyu) cyyv(cyyv) cyyw(cyyw)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急审批同意cyyt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急审批同意cyyv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户cyyv同意紧急审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户cyyt同意紧急审批</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -415,14 +328,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>用户cyyx发送紧急运维成功</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户cyyx发送访问审批成功</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>cyyx</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -439,23 +344,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>yyx</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>qawsed@123</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -468,26 +356,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2 cyyv qawsed@123 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2 cyyw qawsed@123 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2 cyyt qawsed@123 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 cyyw qawsed@123</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 cyyx qawsed@123</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">2 cyyu qawsed@123 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -497,6 +365,94 @@
   </si>
   <si>
     <t>2 cyyu qawsed@123</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户cyyt发送访问审批成功</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cyyt cyyu </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 sysAdmin sysAdmin@123</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级审批人拒绝审批所以cyyt没有收到审批消息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级审批人拒绝审批所以cyyu没有收到审批消息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cyyt qawsed@123 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户sysAdmin拒绝审批</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批拒绝sysAdmin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户cyyu同意访问审批</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问审批同意cyyu</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户sysAdmin同意访问审批</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问审批同意sysAdmin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户cyyt默认同意访问审批</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户cyyt发送紧急运维成功</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户cyyt默认同意紧急审批</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急审批同意sysAdmin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户sysAdmin同意紧急审批</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysAdmin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysAdmin</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysAdmin() cyyt(cyyt) cyyu(cyyu)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1056,43 +1012,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XED4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="10" customWidth="1"/>
-    <col min="5" max="5" width="19.125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="39.125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="39.109375" style="10" customWidth="1"/>
     <col min="8" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16358" s="5" customFormat="1" ht="18.75">
+    <row r="1" spans="1:16358" s="5" customFormat="1" ht="17.399999999999999">
       <c r="A1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="23" t="s">
         <v>43</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:16358">
@@ -1107,13 +1063,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:16358">
@@ -1126,13 +1082,13 @@
         <v>2</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F3" s="3">
         <v>2</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -17505,83 +17461,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="6" max="6" width="16.75" customWidth="1"/>
-    <col min="8" max="8" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="13" max="13" width="26.875" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="13" max="13" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75">
+    <row r="1" spans="1:13" ht="17.399999999999999">
       <c r="A1" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="17" t="s">
-        <v>21</v>
-      </c>
       <c r="M1" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.25">
+    <row r="2" spans="1:13" ht="15.6">
       <c r="A2" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="3">
         <v>155</v>
@@ -17599,22 +17555,22 @@
         <v>7</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.25">
+    <row r="3" spans="1:13" ht="15.6">
       <c r="A3" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>7</v>
@@ -17623,7 +17579,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -17638,7 +17594,7 @@
         <v>7</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -17651,81 +17607,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.25" customWidth="1"/>
-    <col min="2" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="26.75" customWidth="1"/>
-    <col min="5" max="5" width="24.875" customWidth="1"/>
-    <col min="6" max="6" width="7.625" customWidth="1"/>
-    <col min="7" max="7" width="11.75" customWidth="1"/>
-    <col min="8" max="8" width="23.875" customWidth="1"/>
+    <col min="1" max="1" width="32.21875" customWidth="1"/>
+    <col min="2" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="23.125" customWidth="1"/>
-    <col min="11" max="14" width="19.5" customWidth="1"/>
-    <col min="15" max="15" width="36.75" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" customWidth="1"/>
+    <col min="11" max="14" width="19.44140625" customWidth="1"/>
+    <col min="15" max="15" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="18.75">
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="17.399999999999999">
       <c r="A1" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="17" t="s">
-        <v>54</v>
-      </c>
       <c r="L1" s="17" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="8" customFormat="1" ht="14.25">
+    <row r="2" spans="1:15" s="8" customFormat="1" ht="15.6">
       <c r="A2" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
@@ -17753,13 +17709,13 @@
         <v>2</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -17774,78 +17730,78 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="54.375" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="1" max="1" width="54.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="37.5" customWidth="1"/>
+    <col min="5" max="5" width="37.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:5" ht="17.399999999999999">
       <c r="A1" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25">
+    <row r="2" spans="1:5" ht="15.6">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C2" s="20">
         <v>2</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25">
+    <row r="3" spans="1:5" ht="15.6">
       <c r="A3" s="7" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="20">
-        <v>2</v>
+        <v>88</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25">
+    <row r="4" spans="1:5" ht="15.6">
       <c r="A4" s="7" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>6</v>
@@ -17854,24 +17810,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25">
-      <c r="A5" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -17882,103 +17821,87 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="68.375" customWidth="1"/>
-    <col min="2" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="21.75" customWidth="1"/>
-    <col min="5" max="5" width="41.25" customWidth="1"/>
+    <col min="1" max="1" width="79.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="18.75">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="17.399999999999999">
       <c r="A1" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25">
+    <row r="2" spans="1:5" ht="15.6">
       <c r="A2" s="7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C2" s="20">
         <v>1</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E2" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6">
+      <c r="A3" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25">
-      <c r="A3" s="7" t="s">
+    <row r="4" spans="1:5" ht="15.6">
+      <c r="A4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>79</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.25">
-      <c r="A4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="C4" s="16">
         <v>1</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25">
-      <c r="A5" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="16">
-        <v>1</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -17991,85 +17914,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.375" customWidth="1"/>
-    <col min="2" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1"/>
-    <col min="5" max="5" width="45.125" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="49" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="28.375" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="18.75">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="15.6">
+      <c r="A2" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="14.25">
-      <c r="A2" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="B2" s="7" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="7">
         <v>2</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="16">
         <v>2</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -18084,103 +18007,87 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="68.25" customWidth="1"/>
-    <col min="2" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="21.75" customWidth="1"/>
-    <col min="5" max="5" width="39.625" customWidth="1"/>
+    <col min="1" max="1" width="78.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="18.75">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="17.399999999999999">
       <c r="A1" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25">
+    <row r="2" spans="1:5" ht="15.6">
       <c r="A2" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C2" s="20">
         <v>1</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25">
+    <row r="3" spans="1:5" ht="15.6">
       <c r="A3" s="7" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>7</v>
+        <v>88</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25">
+    <row r="4" spans="1:5" ht="15.6">
       <c r="A4" s="7" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="16">
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25">
-      <c r="A5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -18194,72 +18101,72 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="8.625" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="11.25" customWidth="1"/>
-    <col min="12" max="12" width="28.375" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" customWidth="1"/>
+    <col min="12" max="12" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="17.399999999999999">
       <c r="A1" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="17" t="s">
-        <v>21</v>
-      </c>
       <c r="L1" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.25">
+    <row r="2" spans="1:12" ht="15.6">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
@@ -18277,25 +18184,25 @@
         <v>2018</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.25">
+    <row r="3" spans="1:12" ht="15.6">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>7</v>
@@ -18307,7 +18214,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="I3" s="3">
         <v>2018</v>
@@ -18319,7 +18226,7 @@
         <v>7</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -18334,69 +18241,69 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.75" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="10" max="10" width="19.5" customWidth="1"/>
-    <col min="11" max="11" width="25.25" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" customWidth="1"/>
+    <col min="11" max="11" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75">
+    <row r="1" spans="1:11" ht="17.399999999999999">
       <c r="A1" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>21</v>
-      </c>
       <c r="J1" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.25">
+    <row r="2" spans="1:11" ht="15.6">
       <c r="A2" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D2" s="3">
         <v>155</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="25">
         <v>1</v>
@@ -18405,30 +18312,30 @@
         <v>2018</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.25">
+    <row r="3" spans="1:11" ht="15.6">
       <c r="A3" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>7</v>
@@ -18447,7 +18354,7 @@
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -18464,82 +18371,82 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
-    <col min="9" max="9" width="11.75" customWidth="1"/>
-    <col min="13" max="13" width="28.125" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" customWidth="1"/>
+    <col min="13" max="13" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75">
+    <row r="1" spans="1:13" ht="17.399999999999999">
       <c r="A1" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="17" t="s">
-        <v>21</v>
-      </c>
       <c r="M1" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.25">
+    <row r="2" spans="1:13" ht="15.6">
       <c r="A2" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="3">
         <v>155</v>
@@ -18557,22 +18464,22 @@
         <v>7</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.25">
+    <row r="3" spans="1:13" ht="15.6">
       <c r="A3" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>7</v>
@@ -18581,7 +18488,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -18596,7 +18503,7 @@
         <v>7</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
